--- a/data/trans_media/IQ3004_MoAR-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ3004_MoAR-Edad-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,61</t>
+          <t>6,85; 7,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,17</t>
+          <t>7,41; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,92</t>
+          <t>6,87; 7,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,65</t>
+          <t>6,74; 7,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,64</t>
+          <t>7,42; 8,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 8,55</t>
+          <t>7,7; 8,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,48</t>
+          <t>6,95; 7,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,22</t>
+          <t>7,49; 8,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,06</t>
+          <t>7,35; 8,01</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,61</t>
+          <t>6,85; 7,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,17</t>
+          <t>7,41; 8,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,92</t>
+          <t>6,87; 7,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,65</t>
+          <t>6,74; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,64</t>
+          <t>7,42; 8,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 8,55</t>
+          <t>7,7; 8,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,48</t>
+          <t>6,95; 7,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,22</t>
+          <t>7,49; 8,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,06</t>
+          <t>7,35; 8,01</t>
         </is>
       </c>
     </row>
